--- a/bpsk_300_high.xlsx
+++ b/bpsk_300_high.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/N9600A-sim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F05F841-ED5A-7545-AB58-141E23BDAD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5A76B7A2-8E72-2C45-BCA5-B5B4E2D304D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1000" windowWidth="27240" windowHeight="16440"/>
   </bookViews>
@@ -572,6 +572,1144 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>40</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>bpsk_300_high!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.0999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.29999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.29999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1999999999999902E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>bpsk_300_high!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0DF6-2749-A5C2-2DE86724CA39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>39</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>bpsk_300_high!$A$8:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4999999999999901E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1999999999999902E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.29999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3999999999999898E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4999999999999901E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4999999999999901E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1999999999999902E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.6000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3999999999999898E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.6000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.9E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.0999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.29999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.4999999999999901E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.8E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>bpsk_300_high!$B$8:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0DF6-2749-A5C2-2DE86724CA39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1784877823"/>
+        <c:axId val="1785199087"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1784877823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1785199087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1785199087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1784877823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24C12B1A-C598-D058-5187-F7E8C02E6BDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -871,7 +2009,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -888,186 +2028,186 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1.1999999999999999E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="B2">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="C2">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1.2999999999999999E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="B3">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="C3">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1.4E-3</v>
+        <v>2.29999999999999E-3</v>
       </c>
       <c r="B4">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1.5E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="B5">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="C5">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1.6000000000000001E-3</v>
+        <v>2.29999999999999E-3</v>
       </c>
       <c r="B6">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="C6">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1.6999999999999999E-3</v>
+        <v>2.1999999999999902E-3</v>
       </c>
       <c r="B7">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="C7">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1.8E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="B8">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="C8">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1.9E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="B9">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C9">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="B10">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C10">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2.0999999999999999E-3</v>
+        <v>2.4999999999999901E-3</v>
       </c>
       <c r="B11">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C11">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2.1999999999999902E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="B12">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="C12">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2.29999999999999E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="B13">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="C13">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2.3999999999999898E-3</v>
+        <v>2.1999999999999902E-3</v>
       </c>
       <c r="B14">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="C14">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2.4999999999999901E-3</v>
+        <v>2.29999999999999E-3</v>
       </c>
       <c r="B15">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="C15">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1.1999999999999999E-3</v>
+        <v>2.3999999999999898E-3</v>
       </c>
       <c r="B16">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="C16">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1.2999999999999999E-3</v>
+        <v>2.4999999999999901E-3</v>
       </c>
       <c r="B17">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="C17">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1.4E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="B18">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="C18">
         <v>39</v>
@@ -1075,131 +2215,131 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1.5E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="B19">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="C19">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>1.6000000000000001E-3</v>
+        <v>2.4999999999999901E-3</v>
       </c>
       <c r="B20">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="C20">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1.6999999999999999E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="B21">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="C21">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1.8E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="B22">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="C22">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="B23">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="C23">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>2E-3</v>
+        <v>2.1999999999999902E-3</v>
       </c>
       <c r="B24">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="C24">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>2.0999999999999999E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="B25">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="C25">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>2.1999999999999902E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="B26">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="C26">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>2.29999999999999E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="B27">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="C27">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>2.3999999999999898E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="B28">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="C28">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>2.4999999999999901E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="B29">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="C29">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>1.1999999999999999E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="B30">
-        <v>0.14000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="C30">
         <v>39</v>
@@ -1207,13 +2347,13 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>1.2999999999999999E-3</v>
+        <v>2.3999999999999898E-3</v>
       </c>
       <c r="B31">
-        <v>0.14000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="C31">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1221,7 +2361,7 @@
         <v>1.4E-3</v>
       </c>
       <c r="B32">
-        <v>0.14000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="C32">
         <v>39</v>
@@ -1229,98 +2369,98 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>1.5E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="B33">
-        <v>0.14000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="C33">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>1.6000000000000001E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="B34">
-        <v>0.14000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="C34">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>1.6999999999999999E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="B35">
-        <v>0.14000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="C35">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>1.8E-3</v>
+        <v>2.29999999999999E-3</v>
       </c>
       <c r="B36">
-        <v>0.14000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="C36">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>1.9E-3</v>
+        <v>2.4999999999999901E-3</v>
       </c>
       <c r="B37">
-        <v>0.14000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="C37">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>2E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="B38">
-        <v>0.14000000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="C38">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>2.0999999999999999E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="B39">
-        <v>0.14000000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="C39">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>2.1999999999999902E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="B40">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="C40">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>2.29999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="B41">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="C41">
         <v>38</v>
@@ -1328,76 +2468,76 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>2.3999999999999898E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="B42">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="C42">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>2.4999999999999901E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="B43">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="C43">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>1.1999999999999999E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="B44">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="C44">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>1.2999999999999999E-3</v>
+        <v>2.1999999999999902E-3</v>
       </c>
       <c r="B45">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="C45">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>1.4E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="B46">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="C46">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>1.5E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="B47">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="C47">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>1.6000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="B48">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="C48">
         <v>38</v>
@@ -1405,10 +2545,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>1.6999999999999999E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="B49">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="C49">
         <v>38</v>
@@ -1416,109 +2556,109 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>1.8E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="B50">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C50">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>1.9E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="B51">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C51">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>2E-3</v>
+        <v>2.29999999999999E-3</v>
       </c>
       <c r="B52">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C52">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>2.0999999999999999E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="B53">
         <v>0.15</v>
       </c>
       <c r="C53">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>2.1999999999999902E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="B54">
         <v>0.15</v>
       </c>
       <c r="C54">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>2.29999999999999E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="B55">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="C55">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>2.3999999999999898E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="B56">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="C56">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>2.4999999999999901E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="B57">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="C57">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>1.1999999999999999E-3</v>
+        <v>2.3999999999999898E-3</v>
       </c>
       <c r="B58">
         <v>0.16</v>
       </c>
       <c r="C58">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>1.2999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="B59">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="C59">
         <v>38</v>
@@ -1526,32 +2666,32 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>1.4E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="B60">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="C60">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>1.5E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="B61">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="C61">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>1.6000000000000001E-3</v>
+        <v>2.3999999999999898E-3</v>
       </c>
       <c r="B62">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="C62">
         <v>38</v>
@@ -1562,10 +2702,10 @@
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="B63">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="C63">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1573,40 +2713,40 @@
         <v>1.8E-3</v>
       </c>
       <c r="B64">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="C64">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>1.9E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="B65">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="C65">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>2E-3</v>
+        <v>2.3999999999999898E-3</v>
       </c>
       <c r="B66">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="C66">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>2.0999999999999999E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="B67">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="C67">
         <v>38</v>
@@ -1614,32 +2754,32 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>2.1999999999999902E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="B68">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="C68">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>2.29999999999999E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="B69">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="C69">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>2.3999999999999898E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="B70">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="C70">
         <v>38</v>
@@ -1647,54 +2787,54 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>2.4999999999999901E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="B71">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="C71">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>1.1999999999999999E-3</v>
+        <v>2.1999999999999902E-3</v>
       </c>
       <c r="B72">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="C72">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>1.2999999999999999E-3</v>
+        <v>2.4999999999999901E-3</v>
       </c>
       <c r="B73">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="C73">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>1.4E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="B74">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="C74">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>1.5E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="B75">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="C75">
         <v>38</v>
@@ -1702,21 +2842,21 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>1.6000000000000001E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="B76">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="C76">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>1.6999999999999999E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="B77">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="C77">
         <v>38</v>
@@ -1724,43 +2864,43 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>1.8E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="B78">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="C78">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>1.9E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="B79">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="C79">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>2E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="B80">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="C80">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>2.0999999999999999E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="B81">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="C81">
         <v>38</v>
@@ -1768,32 +2908,32 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>2.1999999999999902E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="B82">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="C82">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>2.29999999999999E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="B83">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="C83">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>2.3999999999999898E-3</v>
+        <v>2.1999999999999902E-3</v>
       </c>
       <c r="B84">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="C84">
         <v>38</v>
@@ -1801,76 +2941,76 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>2.4999999999999901E-3</v>
+        <v>2.29999999999999E-3</v>
       </c>
       <c r="B85">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="C85">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>1.1999999999999999E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="B86">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="C86">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>1.2999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="B87">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="C87">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>1.4E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="B88">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="C88">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>1.5E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="B89">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="C89">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>1.6000000000000001E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="B90">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="C90">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>1.6999999999999999E-3</v>
+        <v>2.1999999999999902E-3</v>
       </c>
       <c r="B91">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="C91">
         <v>38</v>
@@ -1878,10 +3018,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>1.8E-3</v>
+        <v>2.29999999999999E-3</v>
       </c>
       <c r="B92">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="C92">
         <v>38</v>
@@ -1889,21 +3029,21 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>1.9E-3</v>
+        <v>2.3999999999999898E-3</v>
       </c>
       <c r="B93">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="C93">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>2E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="B94">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="C94">
         <v>38</v>
@@ -1911,43 +3051,43 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>2.0999999999999999E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="B95">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="C95">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>2.1999999999999902E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="B96">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="C96">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>2.29999999999999E-3</v>
+        <v>2.1999999999999902E-3</v>
       </c>
       <c r="B97">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="C97">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>2.3999999999999898E-3</v>
+        <v>2.29999999999999E-3</v>
       </c>
       <c r="B98">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="C98">
         <v>38</v>
@@ -1958,29 +3098,29 @@
         <v>2.4999999999999901E-3</v>
       </c>
       <c r="B99">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="C99">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>1.1999999999999999E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="B100">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="C100">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>1.2999999999999999E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="B101">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="C101">
         <v>38</v>
@@ -1988,21 +3128,21 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>1.4E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="B102">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="C102">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>1.5E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="B103">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="C103">
         <v>38</v>
@@ -2010,32 +3150,32 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>1.6000000000000001E-3</v>
+        <v>2.1999999999999902E-3</v>
       </c>
       <c r="B104">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="C104">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>1.6999999999999999E-3</v>
+        <v>2.29999999999999E-3</v>
       </c>
       <c r="B105">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="C105">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>1.8E-3</v>
+        <v>2.4999999999999901E-3</v>
       </c>
       <c r="B106">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="C106">
         <v>38</v>
@@ -2043,120 +3183,120 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>1.9E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="B107">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="C107">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>2E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="B108">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="C108">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>2.0999999999999999E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="B109">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="C109">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>2.1999999999999902E-3</v>
+        <v>2.29999999999999E-3</v>
       </c>
       <c r="B110">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="C110">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>2.29999999999999E-3</v>
+        <v>2.4999999999999901E-3</v>
       </c>
       <c r="B111">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="C111">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>2.3999999999999898E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="B112">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="C112">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>2.4999999999999901E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="B113">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="C113">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>1.1999999999999999E-3</v>
+        <v>2.1999999999999902E-3</v>
       </c>
       <c r="B114">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="C114">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>1.2999999999999999E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="B115">
-        <v>0.2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C115">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>1.4E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="B116">
-        <v>0.2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C116">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>1.5E-3</v>
+        <v>2.1999999999999902E-3</v>
       </c>
       <c r="B117">
-        <v>0.2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C117">
         <v>37</v>
@@ -2164,120 +3304,120 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>1.6000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="B118">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="C118">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>1.6999999999999999E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="B119">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="C119">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>1.8E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="B120">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="C120">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>1.9E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="B121">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="C121">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>2E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="B122">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="C122">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>2.0999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="B123">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="C123">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>2.1999999999999902E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="B124">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="C124">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>2.29999999999999E-3</v>
+        <v>2.1999999999999902E-3</v>
       </c>
       <c r="B125">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="C125">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>2.3999999999999898E-3</v>
+        <v>2.29999999999999E-3</v>
       </c>
       <c r="B126">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="C126">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>2.4999999999999901E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="B127">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="C127">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>1.1999999999999999E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="B128">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="C128">
         <v>37</v>
@@ -2285,68 +3425,68 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>1.2999999999999999E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="B129">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="C129">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>1.4E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="B130">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="C130">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>1.5E-3</v>
+        <v>2.29999999999999E-3</v>
       </c>
       <c r="B131">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="C131">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>1.6000000000000001E-3</v>
+        <v>2.4999999999999901E-3</v>
       </c>
       <c r="B132">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="C132">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>1.6999999999999999E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="B133">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="C133">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>1.8E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="B134">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="C134">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -2354,18 +3494,18 @@
         <v>1.9E-3</v>
       </c>
       <c r="B135">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="C135">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>2E-3</v>
+        <v>2.1999999999999902E-3</v>
       </c>
       <c r="B136">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="C136">
         <v>37</v>
@@ -2373,40 +3513,40 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>2.0999999999999999E-3</v>
+        <v>2.4999999999999901E-3</v>
       </c>
       <c r="B137">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="C137">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>2.1999999999999902E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="B138">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="C138">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>2.29999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="B139">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="C139">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>2.3999999999999898E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="B140">
         <v>0.21</v>
@@ -2417,7 +3557,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>2.4999999999999901E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="B141">
         <v>0.21</v>
@@ -2428,10 +3568,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>1.1999999999999999E-3</v>
+        <v>2.3999999999999898E-3</v>
       </c>
       <c r="B142">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="C142">
         <v>37</v>
@@ -2439,10 +3579,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>1.2999999999999999E-3</v>
+        <v>2.4999999999999901E-3</v>
       </c>
       <c r="B143">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="C143">
         <v>37</v>
@@ -2450,54 +3590,54 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>1.4E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="B144">
         <v>0.22</v>
       </c>
       <c r="C144">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>1.5E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="B145">
         <v>0.22</v>
       </c>
       <c r="C145">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>1.6000000000000001E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="B146">
         <v>0.22</v>
       </c>
       <c r="C146">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>1.6999999999999999E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="B147">
         <v>0.22</v>
       </c>
       <c r="C147">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>1.8E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="B148">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="C148">
         <v>37</v>
@@ -2505,21 +3645,21 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>1.9E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="B149">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="C149">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>2E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="B150">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="C150">
         <v>37</v>
@@ -2527,76 +3667,76 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>2.0999999999999999E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="B151">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="C151">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>2.1999999999999902E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="B152">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="C152">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>2.29999999999999E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="B153">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="C153">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>2.3999999999999898E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="B154">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="C154">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>2.4999999999999901E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="B155">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="C155">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>1.1999999999999999E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="B156">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="C156">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>1.2999999999999999E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="B157">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="C157">
         <v>37</v>
@@ -2604,10 +3744,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>1.4E-3</v>
+        <v>2.3999999999999898E-3</v>
       </c>
       <c r="B158">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="C158">
         <v>37</v>
@@ -2615,54 +3755,54 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>1.5E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="B159">
-        <v>0.23</v>
+        <v>0.12</v>
       </c>
       <c r="C159">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>1.6000000000000001E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="B160">
-        <v>0.23</v>
+        <v>0.12</v>
       </c>
       <c r="C160">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>1.6999999999999999E-3</v>
+        <v>2.3999999999999898E-3</v>
       </c>
       <c r="B161">
-        <v>0.23</v>
+        <v>0.12</v>
       </c>
       <c r="C161">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>1.8E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="B162">
-        <v>0.23</v>
+        <v>0.13</v>
       </c>
       <c r="C162">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>1.9E-3</v>
+        <v>2.29999999999999E-3</v>
       </c>
       <c r="B163">
-        <v>0.23</v>
+        <v>0.13</v>
       </c>
       <c r="C163">
         <v>36</v>
@@ -2670,54 +3810,54 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>2E-3</v>
+        <v>2.4999999999999901E-3</v>
       </c>
       <c r="B164">
-        <v>0.23</v>
+        <v>0.13</v>
       </c>
       <c r="C164">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>2.0999999999999999E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="B165">
-        <v>0.23</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C165">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>2.1999999999999902E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="B166">
-        <v>0.23</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C166">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>2.29999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="B167">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="C167">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>2.3999999999999898E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="B168">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
       <c r="C168">
         <v>36</v>
@@ -2725,87 +3865,87 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>2.4999999999999901E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="B169">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="C169">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>1.1999999999999999E-3</v>
+        <v>2.3999999999999898E-3</v>
       </c>
       <c r="B170">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="C170">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>1.2999999999999999E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="B171">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="C171">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>1.4E-3</v>
+        <v>2.4999999999999901E-3</v>
       </c>
       <c r="B172">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="C172">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>1.5E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="B173">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="C173">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>1.6000000000000001E-3</v>
+        <v>2.3999999999999898E-3</v>
       </c>
       <c r="B174">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="C174">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>1.6999999999999999E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="B175">
-        <v>0.24</v>
+        <v>0.13</v>
       </c>
       <c r="C175">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>1.8E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="B176">
-        <v>0.24</v>
+        <v>0.13</v>
       </c>
       <c r="C176">
         <v>35</v>
@@ -2813,57 +3953,57 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>1.9E-3</v>
+        <v>2.3999999999999898E-3</v>
       </c>
       <c r="B177">
-        <v>0.24</v>
+        <v>0.13</v>
       </c>
       <c r="C177">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>2E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="B178">
-        <v>0.24</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C178">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>2.0999999999999999E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="B179">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="C179">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>2.1999999999999902E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="B180">
         <v>0.24</v>
       </c>
       <c r="C180">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>2.29999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="B181">
-        <v>0.24</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C181">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -2871,21 +4011,21 @@
         <v>2.3999999999999898E-3</v>
       </c>
       <c r="B182">
-        <v>0.24</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C182">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>2.4999999999999901E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="B183">
         <v>0.24</v>
       </c>
       <c r="C183">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -3197,6 +4337,10 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C211">
+    <sortCondition descending="1" ref="C2:C211"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>